--- a/conformancelib/testdata/PIV-I_GSA_MSO_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_GSA_MSO_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470D5B8A-A89D-4F46-B707-D8DA2E226658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8903BBA5-8136-420D-97CB-86A0ABA7F8E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="20112" windowHeight="12948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1452" windowWidth="22920" windowHeight="12948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -5636,7 +5636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV481"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C346" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F378" sqref="F378"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
@@ -11960,7 +11962,7 @@
       </c>
       <c r="E352" s="59"/>
       <c r="F352" s="51" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -12504,7 +12506,7 @@
       </c>
       <c r="E384" s="59"/>
       <c r="F384" s="51" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="30">
@@ -12858,7 +12860,7 @@
       </c>
       <c r="E405" s="59"/>
       <c r="F405" s="51" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="30">
@@ -13850,7 +13852,7 @@
       </c>
       <c r="E465" s="51"/>
       <c r="F465" s="51" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
     </row>
     <row r="466" spans="1:6">
